--- a/練習.xlsx
+++ b/練習.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaiim\OneDrive\ドキュメント\GitHub\yaiimuraREPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E4A04B-06FA-4C37-A0A3-23823F58424A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BFD29-B4FD-4B11-AF2B-E9912E4B1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -366,6 +366,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>20231221</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
